--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 17,08</t>
+          <t>5,35; 17,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,35</t>
+          <t>12,37; 26,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 44,39</t>
+          <t>25,54; 43,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,65</t>
+          <t>1,5; 10,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 21,6</t>
+          <t>8,84; 21,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,21</t>
+          <t>13,34; 29,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 39,16</t>
+          <t>22,47; 40,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,39; 25,46</t>
+          <t>13,87; 25,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 16,92</t>
+          <t>8,57; 17,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,68</t>
+          <t>15,2; 26,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,88; 38,95</t>
+          <t>26,27; 38,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,18</t>
+          <t>9,12; 16,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,85</t>
+          <t>12,64; 18,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 34,33</t>
+          <t>26,2; 34,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 39,08</t>
+          <t>30,91; 39,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,18</t>
+          <t>10,82; 17,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,36; 29,89</t>
+          <t>22,42; 29,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,64; 36,73</t>
+          <t>28,38; 36,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,69; 39,75</t>
+          <t>31,56; 40,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,11</t>
+          <t>12,61; 18,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 23,17</t>
+          <t>18,37; 23,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,4; 34,03</t>
+          <t>28,59; 34,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 38,18</t>
+          <t>32,19; 38,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,72</t>
+          <t>12,39; 16,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,31</t>
+          <t>14,54; 19,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,31; 38,55</t>
+          <t>32,37; 38,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,17</t>
+          <t>31,07; 37,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 14,1</t>
+          <t>9,04; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,47</t>
+          <t>23,21; 29,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 38,41</t>
+          <t>32,52; 38,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,46; 38,26</t>
+          <t>32,18; 38,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,45</t>
+          <t>12,09; 16,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 23,46</t>
+          <t>19,59; 23,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,27; 37,84</t>
+          <t>33,27; 37,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,6; 36,91</t>
+          <t>32,42; 36,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 14,49</t>
+          <t>11,41; 14,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 23,21</t>
+          <t>16,63; 22,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 39,2</t>
+          <t>31,54; 38,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,55; 45,97</t>
+          <t>38,82; 46,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,94</t>
+          <t>11,27; 17,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,25</t>
+          <t>27,26; 34,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,03; 40,47</t>
+          <t>32,96; 40,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,93; 50,19</t>
+          <t>42,85; 50,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,82</t>
+          <t>9,5; 18,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,76; 27,49</t>
+          <t>22,8; 27,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,84; 38,71</t>
+          <t>33,31; 38,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,99; 47,1</t>
+          <t>41,87; 46,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,49</t>
+          <t>10,99; 16,39</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,51</t>
+          <t>18,37; 23,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,08</t>
+          <t>20,69; 26,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 27,64</t>
+          <t>22,2; 27,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 17,97</t>
+          <t>12,71; 17,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,34; 32,95</t>
+          <t>27,27; 32,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 27,54</t>
+          <t>22,1; 27,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,09; 31,97</t>
+          <t>25,56; 31,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,79</t>
+          <t>16,7; 22,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,69</t>
+          <t>23,71; 27,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 26,11</t>
+          <t>22,33; 26,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,01</t>
+          <t>24,95; 28,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,44; 19,64</t>
+          <t>15,39; 19,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,7; 19,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>28,8; 32,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,93; 35,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,57</t>
+          <t>12,05; 14,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,26; 29,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>30,0; 33,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,04; 37,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,63</t>
+          <t>14,24; 17,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,96; 24,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,98; 32,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,27; 35,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 15,91</t>
+          <t>13,71; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 17,2</t>
+          <t>5,59; 17,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 26,75</t>
+          <t>12,52; 26,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 43,4</t>
+          <t>25,48; 44,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 21,51</t>
+          <t>8,38; 21,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 29,63</t>
+          <t>14,31; 29,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 40,18</t>
+          <t>22,65; 39,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 17,84</t>
+          <t>8,71; 17,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 26,26</t>
+          <t>15,45; 26,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,27; 38,52</t>
+          <t>26,56; 39,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,65</t>
+          <t>12,87; 18,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 34,09</t>
+          <t>26,45; 34,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 39,28</t>
+          <t>30,71; 39,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,93</t>
+          <t>22,22; 29,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,38; 36,54</t>
+          <t>28,24; 36,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,56; 40,13</t>
+          <t>31,42; 39,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,09</t>
+          <t>18,28; 23,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 34,14</t>
+          <t>28,38; 34,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,19; 38,05</t>
+          <t>32,34; 38,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 19,4</t>
+          <t>14,37; 19,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,37; 38,64</t>
+          <t>32,35; 38,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 37,26</t>
+          <t>31,15; 37,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 29,15</t>
+          <t>23,49; 29,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,52; 38,43</t>
+          <t>32,48; 38,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 38,04</t>
+          <t>32,6; 38,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,56</t>
+          <t>19,76; 23,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,27; 37,91</t>
+          <t>32,93; 37,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 36,9</t>
+          <t>32,54; 36,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 22,89</t>
+          <t>16,53; 23,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,54; 38,82</t>
+          <t>31,91; 39,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,82; 46,16</t>
+          <t>39,32; 46,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,25</t>
+          <t>26,98; 33,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,96; 40,63</t>
+          <t>32,83; 40,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,85; 50,5</t>
+          <t>42,88; 50,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,36</t>
+          <t>22,79; 27,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 38,6</t>
+          <t>33,55; 38,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,87; 46,85</t>
+          <t>42,13; 47,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,84</t>
+          <t>18,69; 23,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 26,14</t>
+          <t>20,53; 26,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 27,8</t>
+          <t>22,24; 27,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,27; 32,96</t>
+          <t>27,38; 33,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,1; 27,54</t>
+          <t>22,31; 27,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,56; 31,57</t>
+          <t>25,75; 31,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 27,65</t>
+          <t>23,63; 27,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 26,16</t>
+          <t>22,22; 26,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,95; 28,88</t>
+          <t>24,79; 28,84</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,48</t>
+          <t>16,91; 19,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,8; 32,3</t>
+          <t>29,11; 32,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,24</t>
+          <t>32,09; 35,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,26; 29,46</t>
+          <t>26,18; 29,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,0; 33,08</t>
+          <t>30,08; 33,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,35</t>
+          <t>34,0; 37,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,13</t>
+          <t>21,97; 24,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,26</t>
+          <t>29,93; 32,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,27; 35,78</t>
+          <t>33,4; 35,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 17,49</t>
+          <t>5,52; 17,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 26,67</t>
+          <t>12,93; 27,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 44,94</t>
+          <t>25,93; 44,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 10,17</t>
+          <t>1,57; 10,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 21,28</t>
+          <t>8,5; 21,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 29,42</t>
+          <t>13,96; 29,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 39,96</t>
+          <t>22,33; 39,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 25,35</t>
+          <t>13,39; 25,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 17,01</t>
+          <t>8,3; 16,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 26,75</t>
+          <t>14,81; 25,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,56; 39,18</t>
+          <t>26,88; 38,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,99</t>
+          <t>9,29; 17,18</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,48</t>
+          <t>12,68; 18,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,45; 34,13</t>
+          <t>26,4; 34,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 39,13</t>
+          <t>31,0; 39,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,43</t>
+          <t>10,52; 17,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 29,52</t>
+          <t>22,36; 29,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,24; 36,45</t>
+          <t>28,64; 36,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,42; 39,84</t>
+          <t>31,69; 39,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 18,07</t>
+          <t>12,42; 18,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,13</t>
+          <t>18,39; 23,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,38; 34,09</t>
+          <t>28,4; 34,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 38,05</t>
+          <t>32,52; 38,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 16,79</t>
+          <t>12,53; 16,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 19,31</t>
+          <t>14,3; 19,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 38,66</t>
+          <t>32,31; 38,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,15; 37,44</t>
+          <t>30,81; 37,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,83</t>
+          <t>9,11; 14,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,49; 29,48</t>
+          <t>23,58; 29,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,48; 38,77</t>
+          <t>32,29; 38,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,6; 38,66</t>
+          <t>32,46; 38,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 16,23</t>
+          <t>12,27; 16,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 23,43</t>
+          <t>19,56; 23,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,93; 37,51</t>
+          <t>33,27; 37,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,54; 36,68</t>
+          <t>32,6; 36,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 14,56</t>
+          <t>11,42; 14,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,03</t>
+          <t>16,61; 23,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,91; 39,3</t>
+          <t>31,97; 39,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,32; 46,25</t>
+          <t>38,55; 45,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,18</t>
+          <t>11,11; 16,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,79</t>
+          <t>27,36; 34,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 40,22</t>
+          <t>33,03; 40,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,88; 50,1</t>
+          <t>42,93; 50,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 18,07</t>
+          <t>9,53; 17,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,63</t>
+          <t>22,76; 27,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 38,49</t>
+          <t>33,84; 38,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,13; 47,08</t>
+          <t>41,99; 47,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,39</t>
+          <t>11,28; 16,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,61</t>
+          <t>18,46; 23,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,12</t>
+          <t>20,8; 26,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,24; 27,97</t>
+          <t>21,95; 27,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,71</t>
+          <t>12,72; 17,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,38; 33,26</t>
+          <t>27,34; 32,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,31; 27,5</t>
+          <t>22,13; 27,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,75; 31,76</t>
+          <t>26,09; 31,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 22,96</t>
+          <t>16,51; 22,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 27,47</t>
+          <t>23,85; 27,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,22; 26,16</t>
+          <t>22,13; 26,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,79; 28,84</t>
+          <t>24,93; 29,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,39; 19,81</t>
+          <t>15,44; 19,64</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,71</t>
+          <t>16,71; 19,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,11; 32,38</t>
+          <t>29,01; 32,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,09; 35,35</t>
+          <t>31,84; 35,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 14,92</t>
+          <t>11,89; 14,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,18; 29,4</t>
+          <t>26,32; 29,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,08; 33,29</t>
+          <t>29,96; 33,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,0; 37,4</t>
+          <t>34,08; 37,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,55</t>
+          <t>14,19; 17,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,97; 24,07</t>
+          <t>22,0; 24,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,93; 32,28</t>
+          <t>29,98; 32,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,4; 35,83</t>
+          <t>33,44; 35,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 15,79</t>
+          <t>13,73; 15,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 17,08</t>
+          <t>12,08; 17,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,35</t>
+          <t>25,0; 32,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 44,39</t>
+          <t>30,96; 38,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,65</t>
+          <t>9,32; 14,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 21,6</t>
+          <t>20,69; 27,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 29,21</t>
+          <t>26,91; 33,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 39,16</t>
+          <t>30,8; 38,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,39; 25,46</t>
+          <t>11,83; 17,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 16,92</t>
+          <t>17,27; 21,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,68</t>
+          <t>26,99; 32,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,88; 38,95</t>
+          <t>32,09; 37,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,18</t>
+          <t>11,77; 15,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 18,85</t>
+          <t>14,3; 19,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 34,33</t>
+          <t>32,31; 38,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 39,08</t>
+          <t>30,81; 37,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,18</t>
+          <t>4,82; 12,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,36; 29,89</t>
+          <t>23,58; 29,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,64; 36,73</t>
+          <t>32,29; 38,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,69; 39,75</t>
+          <t>32,46; 38,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,11</t>
+          <t>12,13; 16,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 23,17</t>
+          <t>19,56; 23,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,4; 34,03</t>
+          <t>33,27; 37,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 38,18</t>
+          <t>32,6; 36,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,72</t>
+          <t>7,63; 13,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>44,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,31</t>
+          <t>16,61; 23,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,31; 38,55</t>
+          <t>31,97; 39,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,17</t>
+          <t>38,55; 45,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 14,1</t>
+          <t>10,84; 16,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,47</t>
+          <t>27,36; 34,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 38,41</t>
+          <t>33,03; 40,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,46; 38,26</t>
+          <t>42,93; 50,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,45</t>
+          <t>6,76; 17,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 23,46</t>
+          <t>22,76; 27,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,27; 37,84</t>
+          <t>33,84; 38,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,6; 36,91</t>
+          <t>41,99; 47,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 14,49</t>
+          <t>8,66; 15,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 23,21</t>
+          <t>18,46; 23,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 39,2</t>
+          <t>20,8; 26,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,55; 45,97</t>
+          <t>21,95; 27,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,94</t>
+          <t>12,38; 17,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,25</t>
+          <t>27,34; 32,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,03; 40,47</t>
+          <t>22,13; 27,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,93; 50,19</t>
+          <t>26,09; 31,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,53; 17,82</t>
+          <t>16,92; 43,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,76; 27,49</t>
+          <t>23,85; 27,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,84; 38,71</t>
+          <t>22,13; 26,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41,99; 47,1</t>
+          <t>24,93; 29,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,49</t>
+          <t>15,69; 29,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,51</t>
+          <t>16,71; 19,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,08</t>
+          <t>29,01; 32,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 27,64</t>
+          <t>31,84; 35,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 17,97</t>
+          <t>9,69; 13,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,34; 32,95</t>
+          <t>26,32; 29,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 27,54</t>
+          <t>29,96; 33,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,09; 31,97</t>
+          <t>34,08; 37,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,79</t>
+          <t>13,98; 22,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,69</t>
+          <t>22,0; 24,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 26,11</t>
+          <t>29,98; 32,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,01</t>
+          <t>33,44; 35,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,44; 19,64</t>
+          <t>12,74; 17,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>30,62%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>33,5%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31,61%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>35,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>31,13%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>34,63%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,71; 19,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>29,01; 32,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>31,84; 35,09</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,57</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>26,32; 29,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29,96; 33,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,08; 37,42</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 17,63</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,0; 24,11</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>29,98; 32,31</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>33,44; 35,81</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>13,73; 15,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 17,41</t>
+          <t>12,0; 17,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,0; 32,23</t>
+          <t>24,8; 31,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,96; 38,36</t>
+          <t>30,91; 38,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,76</t>
+          <t>9,23; 14,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,4</t>
+          <t>20,81; 27,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,91; 33,88</t>
+          <t>27,15; 34,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,13</t>
+          <t>31,35; 38,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,55</t>
+          <t>12,08; 17,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,27; 21,41</t>
+          <t>17,27; 21,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 32,04</t>
+          <t>26,89; 32,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,09; 37,18</t>
+          <t>31,98; 37,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,58</t>
+          <t>11,64; 15,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,31</t>
+          <t>14,11; 19,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,31; 38,55</t>
+          <t>32,14; 38,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,81; 37,17</t>
+          <t>30,99; 37,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,42</t>
+          <t>5,16; 12,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,47</t>
+          <t>23,32; 29,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,29; 38,41</t>
+          <t>32,6; 38,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,46; 38,26</t>
+          <t>32,28; 38,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 16,23</t>
+          <t>12,13; 16,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,56; 23,46</t>
+          <t>19,65; 23,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,27; 37,84</t>
+          <t>33,32; 37,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,6; 36,91</t>
+          <t>32,5; 36,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,5</t>
+          <t>7,76; 13,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 23,21</t>
+          <t>16,59; 22,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,97; 39,2</t>
+          <t>31,83; 38,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,55; 45,97</t>
+          <t>38,61; 46,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,84; 16,77</t>
+          <t>11,0; 17,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,25</t>
+          <t>27,5; 34,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,03; 40,47</t>
+          <t>33,18; 40,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,93; 50,19</t>
+          <t>43,04; 50,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,96</t>
+          <t>6,08; 17,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 27,49</t>
+          <t>22,83; 27,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,84; 38,71</t>
+          <t>33,59; 38,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,99; 47,1</t>
+          <t>41,87; 46,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 15,98</t>
+          <t>8,26; 16,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,51</t>
+          <t>18,47; 23,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,8; 26,08</t>
+          <t>20,42; 26,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 27,64</t>
+          <t>22,07; 27,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 17,61</t>
+          <t>12,6; 17,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 32,95</t>
+          <t>27,22; 32,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 27,54</t>
+          <t>21,97; 27,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,09; 31,97</t>
+          <t>25,99; 31,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 43,59</t>
+          <t>16,79; 37,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 27,69</t>
+          <t>23,73; 27,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,13; 26,11</t>
+          <t>22,22; 26,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,01</t>
+          <t>24,98; 29,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 29,82</t>
+          <t>15,81; 28,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,6; 19,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>29,1; 32,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,94; 35,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 13,64</t>
+          <t>9,65; 13,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,34; 29,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>29,96; 33,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,14; 37,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,33</t>
+          <t>14,22; 22,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,85; 23,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,95; 32,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,49; 35,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,43</t>
+          <t>12,82; 17,44</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que llega a fin de mes con dificultad o mucha dificultad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>100174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>198816</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>231012</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>72479</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>162942</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>210672</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>230306</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>108418</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>263116</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>409488</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>461318</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>180896</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82254; 119554</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>173694; 221503</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>205667; 254169</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56983; 90064</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141302; 185180</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>187893; 237718</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>208444; 254652</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86160; 125011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>235665; 293305</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>374434; 445749</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>425477; 496354</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>154839; 206454</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>158693</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>359023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>345833</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>110600</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>249682</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>363676</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>363900</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>133377</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>408375</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>722698</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>709733</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>243978</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>133681; 184658</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>325752; 390558</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>314360; 377033</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60927; 148984</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>221627; 278399</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>333776; 396865</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>334175; 394881</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>115366; 153560</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>372989; 446237</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>678832; 773812</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>666165; 755539</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>165551; 288033</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>131935</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>266641</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>319857</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>94741</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>204183</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>284652</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>365480</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>117366</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>336118</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>551293</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>685337</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>212107</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>111459; 154110</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>239912; 293904</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>291498; 347702</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>76978; 120629</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>184003; 227763</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>257157; 314151</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>337374; 393864</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54440; 160229</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>306037; 369671</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>513563; 589780</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>644321; 722575</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>131733; 255846</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>193339</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>219455</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>231295</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>136578</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>305526</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>260928</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>299875</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>248407</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>498864</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>480383</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>531170</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>384985</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>171054; 219673</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>192222; 246612</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>205802; 259304</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>115586; 163256</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>276746; 334698</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>231078; 289587</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>270968; 331735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>181973; 410541</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>461047; 535285</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>443013; 518506</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>493399; 575037</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>316363; 567746</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>584141</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1043935</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1127997</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>414398</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>922333</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1119928</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1259561</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>607568</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1506475</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2163863</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2387558</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1021966</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>536405; 626782</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>992066; 1098336</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1075363; 1183427</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>329674; 465813</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>873035; 977713</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1061306; 1178750</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1203999; 1316227</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>518264; 809900</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1429935; 1569869</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2081858; 2243353</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2308918; 2472259</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>904865; 1231268</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>